--- a/xxx/x-db/db-schema-v1.xlsx
+++ b/xxx/x-db/db-schema-v1.xlsx
@@ -5,27 +5,28 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jag/jag/JUNIVERSE/WS/jag-saas/x-db/db-schema/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jag/jag/JUNIVERSE/WS/jag-saas/xxx/x-db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BE8F0E85-1052-E44D-A9B3-E0A9C2EB0F24}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AF10F90D-1164-5F46-A2EA-C639D87E7B01}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="460" windowWidth="27840" windowHeight="17540" activeTab="2" xr2:uid="{4DA704A8-A7B7-3846-9C2D-57559A1D315A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{4DA704A8-A7B7-3846-9C2D-57559A1D315A}"/>
   </bookViews>
   <sheets>
     <sheet name="STUF" sheetId="22" r:id="rId1"/>
     <sheet name="PERMISSION_CODES" sheetId="18" r:id="rId2"/>
     <sheet name="FEATURE_PERMISSION" sheetId="21" r:id="rId3"/>
-    <sheet name="RESOURCE_PERMISSION" sheetId="20" r:id="rId4"/>
-    <sheet name="COURSES" sheetId="4" r:id="rId5"/>
-    <sheet name="COURSE_GROUPS" sheetId="9" r:id="rId6"/>
-    <sheet name="USERS" sheetId="6" r:id="rId7"/>
-    <sheet name="USER_GROUPS" sheetId="7" r:id="rId8"/>
-    <sheet name="USER_RESOURCE_PERMISSION_V1" sheetId="19" r:id="rId9"/>
-    <sheet name="ACCOUNT_TYPE" sheetId="12" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="23" r:id="rId4"/>
+    <sheet name="RESOURCE_PERMISSION" sheetId="20" r:id="rId5"/>
+    <sheet name="COURSES" sheetId="4" r:id="rId6"/>
+    <sheet name="COURSE_GROUPS" sheetId="9" r:id="rId7"/>
+    <sheet name="USERS" sheetId="6" r:id="rId8"/>
+    <sheet name="USER_GROUPS" sheetId="7" r:id="rId9"/>
+    <sheet name="USER_RESOURCE_PERMISSION_V1" sheetId="19" r:id="rId10"/>
+    <sheet name="ACCOUNT_TYPE" sheetId="12" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PERMISSION_CODES!$B$1:$B$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PERMISSION_CODES!$A$1:$A$31</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="259">
   <si>
     <t>COURSE</t>
   </si>
@@ -860,6 +861,18 @@
 {"permission": "READ_ANY_COURSE", "permissionGroup": "COURSE", "isActive": true, "startDate": "2021-05-01T07:00:00.000Z", "endDate": "2022-05-01T07:00:00.000Z"},
 {"permission": "READ_ANY_COURSE_GROUP", "permissionGroup": "COURSE", "isActive": true, "startDate": "2021-05-01T07:00:00.000Z", "endDate": "2022-05-01T07:00:00.000Z"},
 ]</t>
+  </si>
+  <si>
+    <t>CREATE_COURSE_GROUP</t>
+  </si>
+  <si>
+    <t>READ_ANY_COURSE_GROUP</t>
+  </si>
+  <si>
+    <t>UPDATE_ANY_COURSE_GROUP</t>
+  </si>
+  <si>
+    <t>DELETE_ANY_COURSE_GROUP</t>
   </si>
 </sst>
 </file>
@@ -1342,1615 +1355,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D65E5AA2-BA3C-8B45-800E-07D8BAE74A4B}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18ABFD3A-BFD1-D048-A564-472537CD3E67}">
-  <dimension ref="A1:D31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5" customWidth="1"/>
-    <col min="4" max="4" width="50.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C18" t="s">
-        <v>112</v>
-      </c>
-      <c r="D18" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>201</v>
-      </c>
-      <c r="C19" t="s">
-        <v>111</v>
-      </c>
-      <c r="D19" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>226</v>
-      </c>
-      <c r="C20" t="s">
-        <v>216</v>
-      </c>
-      <c r="D20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>202</v>
-      </c>
-      <c r="C21" t="s">
-        <v>113</v>
-      </c>
-      <c r="D21" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" t="s">
-        <v>227</v>
-      </c>
-      <c r="C22" t="s">
-        <v>217</v>
-      </c>
-      <c r="D22" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" t="s">
-        <v>203</v>
-      </c>
-      <c r="C23" t="s">
-        <v>114</v>
-      </c>
-      <c r="D23" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" t="s">
-        <v>228</v>
-      </c>
-      <c r="C24" t="s">
-        <v>218</v>
-      </c>
-      <c r="D24" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" t="s">
-        <v>120</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" t="s">
-        <v>121</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" t="s">
-        <v>153</v>
-      </c>
-      <c r="C30" t="s">
-        <v>159</v>
-      </c>
-      <c r="D30" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397F33F3-CA38-AD40-8919-A99A26EA6D78}">
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" style="5" customWidth="1"/>
-    <col min="3" max="3" width="159.83203125" style="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="304" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="192" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C6" s="6"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:3" ht="304" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="192" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="80" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0FE732-7942-2E4C-BA0C-936933086A62}">
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="5"/>
-    <col min="3" max="3" width="17.83203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="5"/>
-    <col min="5" max="5" width="133.1640625" style="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="96" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="96" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="96" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="64" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="64" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="64" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="64" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="96" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="96" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA119F5-37F6-DA45-B90C-4DC06BAC01BB}">
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="A1:B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7F35BE-0835-0141-A7C6-51E3FC45627A}">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="91" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="74" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="80" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA6F824-369C-0E4F-949A-78DE506B1CDF}">
-  <dimension ref="A1:E21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D2" s="14" t="str">
-        <f>CONCATENATE(A2, "@gmail.com")</f>
-        <v>u1@gmail.com</v>
-      </c>
-      <c r="E2">
-        <v>1000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D3" s="14" t="str">
-        <f t="shared" ref="D3:D21" si="0">CONCATENATE(A3, "@gmail.com")</f>
-        <v>u2@gmail.com</v>
-      </c>
-      <c r="E3">
-        <v>1000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C4" t="s">
-        <v>195</v>
-      </c>
-      <c r="D4" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>u3@gmail.com</v>
-      </c>
-      <c r="E4">
-        <v>1000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>184</v>
-      </c>
-      <c r="C5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D5" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>u4@gmail.com</v>
-      </c>
-      <c r="E5">
-        <v>1000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C6" t="s">
-        <v>195</v>
-      </c>
-      <c r="D6" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>u5@gmail.com</v>
-      </c>
-      <c r="E6">
-        <v>1000000005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C7" t="s">
-        <v>195</v>
-      </c>
-      <c r="D7" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>u6@gmail.com</v>
-      </c>
-      <c r="E7">
-        <v>1000000006</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" t="s">
-        <v>195</v>
-      </c>
-      <c r="D8" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>u7@gmail.com</v>
-      </c>
-      <c r="E8">
-        <v>1000000007</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D9" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>u8@gmail.com</v>
-      </c>
-      <c r="E9">
-        <v>1000000008</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" t="s">
-        <v>195</v>
-      </c>
-      <c r="D10" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>u9@gmail.com</v>
-      </c>
-      <c r="E10">
-        <v>1000000009</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" t="s">
-        <v>195</v>
-      </c>
-      <c r="D11" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>u10@gmail.com</v>
-      </c>
-      <c r="E11">
-        <v>1000000010</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" t="s">
-        <v>195</v>
-      </c>
-      <c r="D12" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>u11@gmail.com</v>
-      </c>
-      <c r="E12">
-        <v>1000000011</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" t="s">
-        <v>195</v>
-      </c>
-      <c r="D13" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>u12@gmail.com</v>
-      </c>
-      <c r="E13">
-        <v>1000000012</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" t="s">
-        <v>195</v>
-      </c>
-      <c r="D14" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>u13@gmail.com</v>
-      </c>
-      <c r="E14">
-        <v>1000000013</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" t="s">
-        <v>195</v>
-      </c>
-      <c r="D15" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>u14@gmail.com</v>
-      </c>
-      <c r="E15">
-        <v>1000000014</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" t="s">
-        <v>195</v>
-      </c>
-      <c r="D16" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>u15@gmail.com</v>
-      </c>
-      <c r="E16">
-        <v>1000000015</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" t="s">
-        <v>195</v>
-      </c>
-      <c r="D17" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>u16@gmail.com</v>
-      </c>
-      <c r="E17">
-        <v>1000000016</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" t="s">
-        <v>195</v>
-      </c>
-      <c r="D18" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>u17@gmail.com</v>
-      </c>
-      <c r="E18">
-        <v>1000000017</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" t="s">
-        <v>195</v>
-      </c>
-      <c r="D19" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>u18@gmail.com</v>
-      </c>
-      <c r="E19">
-        <v>1000000018</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D20" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>u19@gmail.com</v>
-      </c>
-      <c r="E20">
-        <v>1000000019</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" t="s">
-        <v>195</v>
-      </c>
-      <c r="D21" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>u20@gmail.com</v>
-      </c>
-      <c r="E21">
-        <v>1000000020</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A248A1-6946-3A41-9C4C-1A869C8B55C0}">
-  <dimension ref="A1:C17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="145.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>183</v>
-      </c>
-      <c r="B6" t="s">
-        <v>184</v>
-      </c>
-      <c r="C6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>178</v>
-      </c>
-      <c r="B8" t="s">
-        <v>181</v>
-      </c>
-      <c r="C8" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>179</v>
-      </c>
-      <c r="B11" t="s">
-        <v>180</v>
-      </c>
-      <c r="C11" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>191</v>
-      </c>
-      <c r="B12" t="s">
-        <v>190</v>
-      </c>
-      <c r="C12" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" t="s">
-        <v>189</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2903565A-E705-E444-B2EB-DEE3161A5CF9}">
   <dimension ref="A1:H53"/>
   <sheetViews>
@@ -3564,4 +1968,1670 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D65E5AA2-BA3C-8B45-800E-07D8BAE74A4B}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18ABFD3A-BFD1-D048-A564-472537CD3E67}">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="50.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>226</v>
+      </c>
+      <c r="C20" t="s">
+        <v>216</v>
+      </c>
+      <c r="D20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>202</v>
+      </c>
+      <c r="C21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>227</v>
+      </c>
+      <c r="C22" t="s">
+        <v>217</v>
+      </c>
+      <c r="D22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>203</v>
+      </c>
+      <c r="C23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>228</v>
+      </c>
+      <c r="C24" t="s">
+        <v>218</v>
+      </c>
+      <c r="D24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>153</v>
+      </c>
+      <c r="C30" t="s">
+        <v>159</v>
+      </c>
+      <c r="D30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:A31" xr:uid="{037E35F9-7BD1-EB49-BCCC-7D7868CAB744}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397F33F3-CA38-AD40-8919-A99A26EA6D78}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="5" customWidth="1"/>
+    <col min="3" max="3" width="159.83203125" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="304" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="192" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6" s="6"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:3" ht="304" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="192" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D567124D-C210-FB43-A309-D84DF9051365}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0FE732-7942-2E4C-BA0C-936933086A62}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="5"/>
+    <col min="3" max="3" width="17.83203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="5"/>
+    <col min="5" max="5" width="133.1640625" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA119F5-37F6-DA45-B90C-4DC06BAC01BB}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="A1:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7F35BE-0835-0141-A7C6-51E3FC45627A}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="91" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA6F824-369C-0E4F-949A-78DE506B1CDF}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="14" t="str">
+        <f>CONCATENATE(A2, "@gmail.com")</f>
+        <v>u1@gmail.com</v>
+      </c>
+      <c r="E2">
+        <v>1000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" s="14" t="str">
+        <f t="shared" ref="D3:D21" si="0">CONCATENATE(A3, "@gmail.com")</f>
+        <v>u2@gmail.com</v>
+      </c>
+      <c r="E3">
+        <v>1000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>u3@gmail.com</v>
+      </c>
+      <c r="E4">
+        <v>1000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>u4@gmail.com</v>
+      </c>
+      <c r="E5">
+        <v>1000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>u5@gmail.com</v>
+      </c>
+      <c r="E6">
+        <v>1000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D7" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>u6@gmail.com</v>
+      </c>
+      <c r="E7">
+        <v>1000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D8" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>u7@gmail.com</v>
+      </c>
+      <c r="E8">
+        <v>1000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D9" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>u8@gmail.com</v>
+      </c>
+      <c r="E9">
+        <v>1000000008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D10" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>u9@gmail.com</v>
+      </c>
+      <c r="E10">
+        <v>1000000009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D11" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>u10@gmail.com</v>
+      </c>
+      <c r="E11">
+        <v>1000000010</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>195</v>
+      </c>
+      <c r="D12" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>u11@gmail.com</v>
+      </c>
+      <c r="E12">
+        <v>1000000011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>195</v>
+      </c>
+      <c r="D13" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>u12@gmail.com</v>
+      </c>
+      <c r="E13">
+        <v>1000000012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s">
+        <v>195</v>
+      </c>
+      <c r="D14" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>u13@gmail.com</v>
+      </c>
+      <c r="E14">
+        <v>1000000013</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>195</v>
+      </c>
+      <c r="D15" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>u14@gmail.com</v>
+      </c>
+      <c r="E15">
+        <v>1000000014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D16" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>u15@gmail.com</v>
+      </c>
+      <c r="E16">
+        <v>1000000015</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" t="s">
+        <v>195</v>
+      </c>
+      <c r="D17" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>u16@gmail.com</v>
+      </c>
+      <c r="E17">
+        <v>1000000016</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
+        <v>195</v>
+      </c>
+      <c r="D18" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>u17@gmail.com</v>
+      </c>
+      <c r="E18">
+        <v>1000000017</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
+        <v>195</v>
+      </c>
+      <c r="D19" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>u18@gmail.com</v>
+      </c>
+      <c r="E19">
+        <v>1000000018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D20" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>u19@gmail.com</v>
+      </c>
+      <c r="E20">
+        <v>1000000019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" t="s">
+        <v>195</v>
+      </c>
+      <c r="D21" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>u20@gmail.com</v>
+      </c>
+      <c r="E21">
+        <v>1000000020</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A248A1-6946-3A41-9C4C-1A869C8B55C0}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="145.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>179</v>
+      </c>
+      <c r="B11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>